--- a/Compétences/Resources/Type_dnb.xlsx
+++ b/Compétences/Resources/Type_dnb.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mes documents\visual studio 2015\Projects\Compétences\Compétences\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Visual Studio 2015\Projects\Compétences ELyco\Compétences\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -189,7 +189,7 @@
   <si>
     <t>Histoire
 Géo EMC
-(épreuve 50)</t>
+(épreuve /50)</t>
   </si>
 </sst>
 </file>
@@ -7636,8 +7636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
